--- a/data and code/Raw data/Figure2/Annual_Production-2008-2024.xlsx
+++ b/data and code/Raw data/Figure2/Annual_Production-2008-2024.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA21709-F07D-44C2-A7E5-469F13ED6563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6F73C5-FAA0-4BA3-80B4-2CC5226FEC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="1800" windowWidth="19200" windowHeight="9970" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2345,8 +2345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AF6" sqref="AF6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2379,7 +2379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2010</v>
       </c>
